--- a/output/classesPressaoCS_2022-06-23.xlsx
+++ b/output/classesPressaoCS_2022-06-23.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +412,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BL28</t>
+          <t>BU22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -421,18 +421,18 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0346547690029918</v>
+        <v>0.09008063046311043</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">S MT </t>
+          <t xml:space="preserve">T S MT MS </t>
         </is>
       </c>
       <c r="E2">
-        <v>-8.391</v>
+        <v>-7.632</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="H2">
-        <v>0.2892371115199574</v>
+        <v>0.5750373738471743</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.162</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BL21</t>
+          <t>BU09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -461,18 +461,18 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.004191002292828872</v>
+        <v>0.02924280647111499</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">S MT </t>
+          <t xml:space="preserve">T S MT MS </t>
         </is>
       </c>
       <c r="E3">
-        <v>-11.792</v>
+        <v>-11.638</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="H3">
-        <v>0.5410374735125565</v>
+        <v>0.8840955341017246</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.273</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22WNBPEYG6I1BL28</t>
+          <t>BU29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -501,29 +501,38 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.02186389173810943</v>
+        <v>0.007285254166297772</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S MT </t>
+          <t xml:space="preserve">T S MT MS </t>
         </is>
       </c>
       <c r="E4">
-        <v>-9.16</v>
+        <v>-14.287</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>trial</t>
-        </is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>0.4381172313158651</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22WNBPEYG6I1BL21</t>
+          <t>BU03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -532,20 +541,6102 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.004441648689744615</v>
+        <v>0.005685559365315673</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>-15.604</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>0.8113387175648645</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BU05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.004383623759501853</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>-15.899</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>0.8599432310150696</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BU06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.004104943203405376</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>-15.9</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>0.8732199293841884</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BU41</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.004172812178633856</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>-16.304</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>0.8195355885265665</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BU34</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.003249794232006553</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>-16.612</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>0.8117837097970818</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BU35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.001463807425720942</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>-17.585</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>0.3543346435092632</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BU39</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0.001464511483537101</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>-17.968</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>0.8020645608109008</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BU30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.3249842430725417</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>-1.225</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>0.8366397013897883</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BU01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.1404724897212137</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E13">
+        <v>-3.813</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>0.8126707304629741</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BU12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.193032260311649</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>-4.649</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>0.8870759409012257</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BU17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.1933219880851886</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>-5.274</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>0.6747963787079233</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BU09</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.1588837419876389</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>-6.039</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>0.8840955341017246</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BU25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.06332041359512641</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>-6.587</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0.7979153498705297</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BU10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.06635394329152866</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>0.72391890045314</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BU29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.03522978078757</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>-9.286</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>0.4381172313158651</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.237</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BU05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.03079094847246866</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E20">
+        <v>-10.465</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>0.8599432310150696</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BU39</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>0.03547430332387247</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E21">
+        <v>-10.5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>0.8020645608109008</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BU03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>0.02319378384085458</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>-11.439</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>0.8113387175648645</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BU23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>0.01386778317510984</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>-11.782</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>0.4787166697454483</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BU35</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>0.01705676812126999</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>-12.063</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>0.3543346435092632</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BU40</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>0.004498040424084082</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>-12.543</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>0.7369821519824823</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BU34</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>0.008677687698569025</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>-12.823</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>0.8117837097970818</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BU41</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0.001334795449931869</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>-16.746</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>0.8195355885265665</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BU35</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.06181884200589038</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>1.405</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>0.3543346435092632</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BU07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.09508745076000613</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>-3.096</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>0.7648834710980359</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BU22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0.159621011891391</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>-3.939</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>0.5750373738471743</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BU17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0.1102151366475912</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>-4.351</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>0.6747963787079233</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BU30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>0.07216759104278103</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>-5.703</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>0.8366397013897883</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BU25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>0.1204602163583984</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>-6.556</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>0.7979153498705297</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BU10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>0.09642529688422152</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>-7.632</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>0.72391890045314</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BU09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0.08504878228656221</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>-8.065</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>0.8840955341017246</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BU12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>0.05449570494960854</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>-8.502000000000001</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>0.8870759409012257</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BU23</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.037342141667287</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>-9.273</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>0.4787166697454483</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BU39</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0.04927257930731532</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>-9.284000000000001</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>0.8020645608109008</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BU01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>0.02351791715299201</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>-10.657</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>0.8126707304629741</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BU05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>0.03002282035202275</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>-13.214</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>0.8599432310150696</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BU06</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>0.009810274067626579</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>-14.091</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>0.8732199293841884</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BU34</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>0.01624848861217565</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>-14.153</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>0.8117837097970818</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BU03</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>0.01239537435647531</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>-15.355</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>0.8113387175648645</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BU29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.003383945746274986</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>-15.602</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>0.4381172313158651</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BU40</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>0.00101576185766572</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>-18.236</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>0.7369821519824823</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BU41</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>0.00109214322851392</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>-20.011</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>0.8195355885265665</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU09</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>0.2690981323634213</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t xml:space="preserve">S MT </t>
         </is>
       </c>
-      <c r="E5">
-        <v>-11.716</v>
-      </c>
-      <c r="F5">
+      <c r="E47">
+        <v>-3.656</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU09</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>0.2422421424835968</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>-3.85</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU09</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>0.203375316196063</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>-4.217</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>0.1925889623626165</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>-4.306</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>0.1890916810416575</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>-4.339</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU09</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>0.1627396951088315</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>-4.621</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU29</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0.1233949096011888</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>-4.798</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU05</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>0.1433829221462714</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>-4.841</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>0.1184770224568654</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>-5.162</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>0.1095109423834379</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>-5.292</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>0.09371364503209656</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>-5.384</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU29</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>0.08392300601151037</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>-5.518</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU05</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>0.09104893357904609</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>-5.536</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU41</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>0.09037732488669226</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>-5.608</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU05</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>0.07627912796185887</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>-5.865</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>0.06350503669184404</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>-5.988</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU03</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>0.06923425384814608</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>-5.993</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0.06487681948477286</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>-5.998</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU05</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>0.06753473413106204</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>-6.047</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.06768492036850882</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>-6.056</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU41</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.06772388207058744</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>-6.057</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0.06729258155520379</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>-6.061</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU41</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.06739295485884256</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>-6.066</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU03</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0.06082588338052386</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>-6.149</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU09</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0.05689470840699851</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>-6.165</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU29</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0.05335642566452858</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>-6.172</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU03</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>0.05753920482516228</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>-6.205</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU41</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0.05929186027972877</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>-6.24</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU05</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>0.05459374322816835</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>-6.254</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU41</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>0.05878835509125779</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>-6.264</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU41</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>0.05717458399926545</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>-6.272</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU29</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0.05160321636377274</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>-6.318</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU06</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>0.05151943404532722</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>-6.36</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU29</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0.05213880283358552</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>-6.383</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU35</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>0.0486698944203996</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>-6.465</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU41</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.04873962723451064</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>-6.521</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.04399911463469153</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>-6.56</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU06</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.04588006353620822</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>-6.566</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU06</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>0.04569845135956807</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>-6.571</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>0.04526590623027171</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>-6.586</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU35</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.0434610512450273</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>-6.661</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.04025293460437918</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>-6.731</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU39</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0.03822080565416219</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>-6.768</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.03692719694790203</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>-6.777</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.03764742164966817</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>-6.817</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU35</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.03818402798026288</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>-6.825</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU39</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.03648924650275309</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>-6.835</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>22WNUBYG417BU35</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.03472635057191431</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>-6.888</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>22WNUBYG414BU39</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.03502495330483324</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>-6.894</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU39</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0.03475224770008856</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>-6.905</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>22WNUBYG411BU35</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.03490754760266557</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>-6.945</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>22WNUBYG412BU39</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.02973516962808809</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>-7.16</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>22WNUBYG420BU39</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.02727001375420546</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>-7.315</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU22</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.08775589712436072</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>-7.387</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>22WNUBYG415BU35</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.02391430740665279</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>-7.396</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU35</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.02307122893610858</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>-7.525</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>22WNUBYG418BU39</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.01931360728349429</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>-7.702</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.0763150756272567</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>-7.924</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>0.05428952595710446</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>-8.375999999999999</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>0.01983375191109515</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>-11.104</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU06</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>0.02512906377774005</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>-11.909</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU09</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0.02415353052956659</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>-12.032</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>0.01370697151501721</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>-12.508</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU29</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0.01214995538624697</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>-13.127</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU03</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.0132586542984594</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>-13.397</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0.01353880379052463</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>-13.601</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU29</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0.005458572154692587</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>-13.773</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU09</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.01219838786405325</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>-13.99</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU03</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>0.007128973790296755</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>-14.365</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU06</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0.006680638727582955</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>-14.569</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU09</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>0.008447542957534138</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>-14.722</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU39</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0.007233253335528489</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>-14.73</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU03</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>0.005563930008426476</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>-15.191</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU35</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>0.002706805089373376</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>-15.206</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU41</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>0.005894005536287494</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>-15.504</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU03</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>0.004209503770720158</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>-15.686</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU05</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>0.004038962104570776</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>-15.701</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>0.003993409051621821</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>-15.746</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU41</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>0.00434768251723272</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>-15.823</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU05</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>0.002904428454264529</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>-16.09</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>0.002413075380185314</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>-16.199</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>0.002451025366181026</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>-16.225</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU41</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>0.00348747126805582</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>-16.408</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU34</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>0.003103526126164713</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>-16.523</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU06</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>0.002680328845313884</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>-16.547</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU06</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>0.002191578640655223</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>-16.559</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU05</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>0.002318085528698499</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>-16.648</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU05</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>0.002104250555265086</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>-16.652</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU35</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>0.001871304483168634</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>-16.752</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU39</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>0.002545128499843785</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>-16.949</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU41</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0.002328447892463226</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>-17.068</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU34</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>0.002256067339910017</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>-17.18</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU05</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>0.00206263406243945</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>-17.205</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU29</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>0.001852478123948731</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>-17.208</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU39</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>0.001326506732952759</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>-17.271</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU06</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>0.001528215521652387</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>-17.384</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU35</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>0.001546945560652491</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>-17.414</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU29</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>0.001085371669241719</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>-17.682</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU05</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>0.001363401316085366</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>-17.698</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU03</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>0.001429306384256979</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S MT </t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>-17.853</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>22WNUBYG402BU35</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>0.0009741544497788857</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>-17.995</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>22WNUBYG410BU39</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>0.0009014191906251412</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>-18.053</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>22WNUBYG413BU39</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>0.0009014191906251412</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>-18.053</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU39</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0.0007845220480240389</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>-18.829</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>22WNUBYG401BU35</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>0.0006162157768099252</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>-19.001</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU35</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>0.0005129647461642461</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>-19.124</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>22WNUBYG419BU41</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>0.0005328880301658234</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>-19.627</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>22WNUBYG416BU41</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>0.0003520911537208127</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>-20.086</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU30</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>0.3249842430725417</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>-1.225</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU01</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>0.1404724897212137</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>-3.813</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU12</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>0.193032260311649</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>-4.649</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU17</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>0.1933219880851886</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>-5.274</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU09</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>0.1588837419876389</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>-6.039</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>0.06332041359512641</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>-6.587</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>0.06635394329152866</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU29</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>0.03522978078757</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>-9.286</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU05</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>0.03079094847246866</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>-10.465</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU39</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>0.03547430332387247</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>-10.5</v>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU03</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>0.02319378384085458</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>-11.439</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU23</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>0.01386778317510984</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>-11.782</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU35</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>0.01705676812126999</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>-12.063</v>
+      </c>
+      <c r="F167">
+        <v>5</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU40</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>0.004498040424084082</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>-12.543</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU34</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>0.008677687698569025</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>-12.823</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>22WNUBYG501BU41</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>0.001334795449931869</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT </t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>-16.746</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU35</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>0.06379358971352778</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>-0.081</v>
+      </c>
+      <c r="F171">
         <v>6</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU07</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>0.1027041074911309</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>-3.917</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU22</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>0.159621011891391</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>-3.939</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU17</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>0.1084192496325962</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>-3.953</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU30</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>0.07230666579644429</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>-6.124</v>
+      </c>
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU25</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>0.1191969033557875</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>-6.327</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU10</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>0.09814537989615668</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>-7.932</v>
+      </c>
+      <c r="F177">
+        <v>6</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU09</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>0.07457063753565851</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>-8.654</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU23</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>0.02957389543740396</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>-9.212</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU12</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>0.04657089958013794</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>-9.58</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU39</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>0.05146057244253088</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>-9.734</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU01</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>0.01988763442308894</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>-11.516</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU06</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>0.01102166573533214</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>-14.209</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU05</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>0.02072905548285675</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>-14.229</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU34</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>0.0105573324456163</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>-15.075</v>
+      </c>
+      <c r="F185">
+        <v>6</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU03</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>0.00792266123605645</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>-16.398</v>
+      </c>
+      <c r="F186">
+        <v>6</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU29</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>0.001418788262852355</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>-18.598</v>
+      </c>
+      <c r="F187">
+        <v>6</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU40</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>0.0005551824525121818</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>-18.984</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>22WNBPEYG6K1BU41</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>0.0007566115736591383</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T S MT MS </t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>-20.921</v>
+      </c>
+      <c r="F189">
+        <v>6</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>trial</t>
         </is>
